--- a/Cd - averaged .xlsx
+++ b/Cd - averaged .xlsx
@@ -4,15 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20850" windowHeight="11630"/>
+    <workbookView windowWidth="24045" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Cd</t>
   </si>
@@ -49,6 +46,12 @@
   </si>
   <si>
     <t>bi2</t>
+  </si>
+  <si>
+    <t>Cd-five cylinders</t>
+  </si>
+  <si>
+    <t>Cm-cylinders</t>
   </si>
 </sst>
 </file>
@@ -664,8 +667,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2759,6 +2765,2276 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.143116443624058"/>
+          <c:y val="0.0461063713922672"/>
+          <c:w val="0.821427472696508"/>
+          <c:h val="0.790451987656562"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"five cylinders"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>five cylinders</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="dbl">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="28575"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$E$354:$E$369</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$H$354:$H$369</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.769186509004085</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.16229168982935</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.23198920414408</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.26021843333621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.33379824645281</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.21493319614039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.23238578662129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.27015092584362</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2284107747065</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.23680819652347</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.19671688227362</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.18053220225096</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.15944403208334</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.16531799067113</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.14369264533988</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2187320851199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"three cylinders"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>three cylinders</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="dbl">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="28575"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$E$354:$E$369</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$A$354:$A$369</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.6690048</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8526874</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.01155464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.13798586666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.19056757333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.18448946666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.23340708666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.21257446666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.20484086666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.20155064</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2293786</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.18776953333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1537242</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.24194506666667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.11992366666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.18281553333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="466635586"/>
+        <c:axId val="951693268"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="466635586"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="-25000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:uFill>
+                  </a:rPr>
+                  <a:t>l</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:uFill>
+                  </a:rPr>
+                  <a:t>01</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:uFill>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:uFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.466879066133341"/>
+              <c:y val="0.902341622799056"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="-25000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="951693268"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="951693268"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.7"/>
+          <c:min val="0.7"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="-25000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:uFill>
+                  </a:rPr>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:uFill>
+                  </a:rPr>
+                  <a:t>d</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:uFill>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:uFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00452215857702743"/>
+              <c:y val="0.401458744594848"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="-25000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466635586"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="-25000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="-25000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.491106421465179"/>
+          <c:y val="0.595600676818951"/>
+          <c:w val="0.469400060295448"/>
+          <c:h val="0.243090806542583"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="-25000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{69bfdf3c-679e-4753-83e2-95abce6898e9}"/>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN" sz="1600" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="-25000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:uFill>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:uFill>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.143116443624058"/>
+          <c:y val="0.0461063713922672"/>
+          <c:w val="0.821427472696508"/>
+          <c:h val="0.790451987656562"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"five cylinders"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>five cylinders</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="dbl">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="28575"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$E$354:$E$369</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$I$354:$I$369</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.71463110064241</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.887884379069714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.941114766058183</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.872535783114917</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.901415405348913</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.959818445483956</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.869956575479247</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.848474978460091</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88038627911617</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.874983924349901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.831265625010933</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.909066512893301</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.879744403136337</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.870821034408691</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.878776970783236</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.869072923947822</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"three cylinders"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>three cylinders</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="dbl">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="28575"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$E$354:$E$369</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$354:$B$369</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.678015313333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.867900113333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.927463466666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.940568066666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91973758</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.864825566666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85447484</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.872518533333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.868791</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.898640053333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.849312666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.862010333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.877217826666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8918057</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.896423933333333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.897696433333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="466635586"/>
+        <c:axId val="951693268"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="466635586"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="-25000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600" i="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:uFill>
+                  </a:rPr>
+                  <a:t>l</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:uFill>
+                  </a:rPr>
+                  <a:t>01</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:uFill>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:uFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.471401224710368"/>
+              <c:y val="0.902341622799056"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="-25000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="951693268"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="951693268"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.1"/>
+          <c:min val="0.7"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="-25000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:uFill>
+                  </a:rPr>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:uFill>
+                  </a:rPr>
+                  <a:t>m</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:uFill>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:uFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00394736842105263"/>
+              <c:y val="0.409918981481481"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="-25000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466635586"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="-25000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="-25000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.660703735439834"/>
+          <c:y val="0.598420755781162"/>
+          <c:w val="0.28851371721435"/>
+          <c:h val="0.243090806542583"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="-25000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{69bfdf3c-679e-4753-83e2-95abce6898e9}"/>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN" sz="1600" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="-25000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:uFill>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:uFill>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14537854587108"/>
+          <c:y val="0.0477533370934386"/>
+          <c:w val="0.821427472696508"/>
+          <c:h val="0.790451987656562"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"five cylinders"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>five cylinders</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="dbl">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="28575"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$E$354:$E$369</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$J$354:$J$369</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.07817071187588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.35857531920649</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.33056551904689</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.54084503605959</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.62803745110277</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.47618586958176</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.51917755473542</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.71764384244575</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.61594718307985</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.58630865032182</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4725919403606</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.34391249779809</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.25930825357422</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.27993235969844</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.89194008537087</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7849387422471</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"three cylinders"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>three cylinders</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="dbl">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="28575"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$E$354:$E$369</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$354:$C$369</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.078053299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.52324626</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.786093411</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.915303847</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.014250241</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.004356989</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.126889305</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.123417789</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.107727651</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.087410061</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.107795358</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.079222498</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.04096539</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.200358589</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.001878549</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.00057416</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="466635586"/>
+        <c:axId val="951693268"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="466635586"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1600" b="0" i="1" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="-25000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:uFill>
+                  </a:rPr>
+                  <a:t>l</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:uFill>
+                  </a:rPr>
+                  <a:t>01</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:uFill>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:uFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.471401224710368"/>
+              <c:y val="0.902341622799056"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="-25000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="951693268"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="951693268"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1600" b="0" i="1" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="-25000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:uFill>
+                  </a:rPr>
+                  <a:t>E</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:uFill>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:uFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0067863067410647"/>
+              <c:y val="0.414431107821018"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="2000" b="0" i="1" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="-25000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466635586"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="-25000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="-25000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.546674709696878"/>
+          <c:y val="0.609701071630006"/>
+          <c:w val="0.400241290906349"/>
+          <c:h val="0.243090806542583"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="-25000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{69bfdf3c-679e-4753-83e2-95abce6898e9}"/>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN" sz="1600" i="1" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="-25000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:uFill>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:uFill>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2800,6 +5076,126 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3911,6 +6307,1614 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10172">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:noFill/>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10172">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:noFill/>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10172">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:noFill/>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3932,8 +7936,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5410200" y="17876520"/>
-        <a:ext cx="4413885" cy="3498215"/>
+        <a:off x="5868035" y="17241520"/>
+        <a:ext cx="4797425" cy="3371215"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3950,16 +7954,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>26035</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>302895</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>121285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>210185</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>513080</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3967,8 +7971,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4972050" y="17983835"/>
-        <a:ext cx="3867785" cy="3498215"/>
+        <a:off x="7055485" y="19323685"/>
+        <a:ext cx="4199255" cy="3377565"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3978,20 +7982,97 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>353</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>210185</xdr:colOff>
+      <xdr:row>372</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8082280" y="60521850"/>
+        <a:ext cx="4199255" cy="3377565"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>417195</xdr:colOff>
+      <xdr:row>352</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>627380</xdr:colOff>
+      <xdr:row>372</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="12488545" y="60502800"/>
+        <a:ext cx="4199255" cy="3377565"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>374</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>270510</xdr:colOff>
+      <xdr:row>393</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8142605" y="64163575"/>
+        <a:ext cx="4199255" cy="3377565"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1 (2)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4246,16 +8327,16 @@
   <sheetPr/>
   <dimension ref="A1:F905"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+    <sheetView topLeftCell="A119" workbookViewId="0">
       <selection activeCell="H98" sqref="H$1:I$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.8181818181818"/>
-    <col min="2" max="2" width="11.7272727272727"/>
-    <col min="3" max="3" width="12.8181818181818"/>
-    <col min="8" max="9" width="12.8181818181818"/>
+    <col min="1" max="1" width="12.8166666666667"/>
+    <col min="2" max="2" width="11.725"/>
+    <col min="3" max="3" width="12.8166666666667"/>
+    <col min="8" max="9" width="12.8166666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -22371,19 +26452,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F905"/>
+  <dimension ref="A1:J905"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B905"/>
+    <sheetView tabSelected="1" topLeftCell="D353" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="11.7272727272727"/>
-    <col min="3" max="3" width="12.8181818181818"/>
+    <col min="1" max="2" width="11.725"/>
+    <col min="3" max="3" width="12.8166666666667"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22401,6 +26482,12 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -29443,7 +33530,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:10">
       <c r="A354">
         <v>0.6690048</v>
       </c>
@@ -29462,8 +33549,17 @@
       <c r="F354">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="355" spans="1:6">
+      <c r="H354" s="1">
+        <v>0.769186509004085</v>
+      </c>
+      <c r="I354" s="1">
+        <v>0.71463110064241</v>
+      </c>
+      <c r="J354" s="1">
+        <v>1.07817071187588</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10">
       <c r="A355">
         <v>0.8526874</v>
       </c>
@@ -29482,8 +33578,17 @@
       <c r="F355">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="356" spans="1:6">
+      <c r="H355" s="1">
+        <v>1.16229168982935</v>
+      </c>
+      <c r="I355" s="1">
+        <v>0.887884379069714</v>
+      </c>
+      <c r="J355" s="1">
+        <v>3.35857531920649</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10">
       <c r="A356">
         <v>1.01155464</v>
       </c>
@@ -29502,8 +33607,17 @@
       <c r="F356">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="357" spans="1:6">
+      <c r="H356" s="1">
+        <v>1.23198920414408</v>
+      </c>
+      <c r="I356" s="1">
+        <v>0.941114766058183</v>
+      </c>
+      <c r="J356" s="1">
+        <v>3.33056551904689</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10">
       <c r="A357">
         <v>1.13798586666667</v>
       </c>
@@ -29522,8 +33636,17 @@
       <c r="F357">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="358" spans="1:6">
+      <c r="H357" s="1">
+        <v>1.26021843333621</v>
+      </c>
+      <c r="I357" s="1">
+        <v>0.872535783114917</v>
+      </c>
+      <c r="J357" s="1">
+        <v>3.54084503605959</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10">
       <c r="A358">
         <v>1.19056757333333</v>
       </c>
@@ -29542,8 +33665,17 @@
       <c r="F358">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="359" spans="1:6">
+      <c r="H358" s="1">
+        <v>1.33379824645281</v>
+      </c>
+      <c r="I358" s="1">
+        <v>0.901415405348913</v>
+      </c>
+      <c r="J358" s="1">
+        <v>3.62803745110277</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10">
       <c r="A359">
         <v>1.18448946666667</v>
       </c>
@@ -29562,8 +33694,17 @@
       <c r="F359">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="360" spans="1:6">
+      <c r="H359" s="1">
+        <v>1.21493319614039</v>
+      </c>
+      <c r="I359" s="1">
+        <v>0.959818445483956</v>
+      </c>
+      <c r="J359" s="1">
+        <v>3.47618586958176</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10">
       <c r="A360">
         <v>1.23340708666667</v>
       </c>
@@ -29582,8 +33723,17 @@
       <c r="F360">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="361" spans="1:6">
+      <c r="H360" s="1">
+        <v>1.23238578662129</v>
+      </c>
+      <c r="I360" s="1">
+        <v>0.869956575479247</v>
+      </c>
+      <c r="J360" s="1">
+        <v>3.51917755473542</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10">
       <c r="A361">
         <v>1.21257446666667</v>
       </c>
@@ -29602,8 +33752,17 @@
       <c r="F361">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="362" spans="1:6">
+      <c r="H361" s="1">
+        <v>1.27015092584362</v>
+      </c>
+      <c r="I361" s="1">
+        <v>0.848474978460091</v>
+      </c>
+      <c r="J361" s="1">
+        <v>3.71764384244575</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10">
       <c r="A362">
         <v>1.20484086666667</v>
       </c>
@@ -29622,8 +33781,17 @@
       <c r="F362">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="363" spans="1:6">
+      <c r="H362" s="1">
+        <v>1.2284107747065</v>
+      </c>
+      <c r="I362" s="1">
+        <v>0.88038627911617</v>
+      </c>
+      <c r="J362" s="1">
+        <v>3.61594718307985</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10">
       <c r="A363">
         <v>1.20155064</v>
       </c>
@@ -29642,8 +33810,17 @@
       <c r="F363">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="364" spans="1:6">
+      <c r="H363" s="1">
+        <v>1.23680819652347</v>
+      </c>
+      <c r="I363" s="1">
+        <v>0.874983924349901</v>
+      </c>
+      <c r="J363" s="1">
+        <v>3.58630865032182</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10">
       <c r="A364">
         <v>1.2293786</v>
       </c>
@@ -29662,8 +33839,17 @@
       <c r="F364">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="365" spans="1:6">
+      <c r="H364" s="1">
+        <v>1.19671688227362</v>
+      </c>
+      <c r="I364" s="1">
+        <v>0.831265625010933</v>
+      </c>
+      <c r="J364" s="1">
+        <v>3.4725919403606</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10">
       <c r="A365">
         <v>1.18776953333333</v>
       </c>
@@ -29682,8 +33868,17 @@
       <c r="F365">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="366" spans="1:6">
+      <c r="H365" s="1">
+        <v>1.18053220225096</v>
+      </c>
+      <c r="I365" s="1">
+        <v>0.909066512893301</v>
+      </c>
+      <c r="J365" s="1">
+        <v>3.34391249779809</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10">
       <c r="A366">
         <v>1.1537242</v>
       </c>
@@ -29702,8 +33897,17 @@
       <c r="F366">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="367" spans="1:6">
+      <c r="H366" s="1">
+        <v>1.15944403208334</v>
+      </c>
+      <c r="I366" s="1">
+        <v>0.879744403136337</v>
+      </c>
+      <c r="J366" s="1">
+        <v>3.25930825357422</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10">
       <c r="A367">
         <v>1.24194506666667</v>
       </c>
@@ -29722,8 +33926,17 @@
       <c r="F367">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="368" spans="1:6">
+      <c r="H367" s="1">
+        <v>1.16531799067113</v>
+      </c>
+      <c r="I367" s="1">
+        <v>0.870821034408691</v>
+      </c>
+      <c r="J367" s="1">
+        <v>3.27993235969844</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10">
       <c r="A368">
         <v>1.11992366666667</v>
       </c>
@@ -29742,8 +33955,17 @@
       <c r="F368">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="369" spans="1:6">
+      <c r="H368" s="1">
+        <v>1.14369264533988</v>
+      </c>
+      <c r="I368" s="1">
+        <v>0.878776970783236</v>
+      </c>
+      <c r="J368" s="1">
+        <v>2.89194008537087</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10">
       <c r="A369">
         <v>1.18281553333333</v>
       </c>
@@ -29761,6 +33983,15 @@
       </c>
       <c r="F369">
         <v>1.5</v>
+      </c>
+      <c r="H369" s="1">
+        <v>1.2187320851199</v>
+      </c>
+      <c r="I369" s="1">
+        <v>0.869072923947822</v>
+      </c>
+      <c r="J369" s="1">
+        <v>2.7849387422471</v>
       </c>
     </row>
     <row r="370" spans="1:6">
